--- a/convert.excel/08.specification_item.xlsx
+++ b/convert.excel/08.specification_item.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="72">
   <si>
     <t>cate_id</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>內建菜單</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>05</t>
@@ -230,13 +233,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -260,8 +267,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,22 +569,31 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
+      <c r="A4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -579,16 +601,22 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -597,111 +625,165 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>12.0</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>13.0</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>14.0</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>15.0</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>16.0</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>17.0</v>
       </c>
       <c r="B11" t="s">
@@ -711,17 +793,26 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>18.0</v>
       </c>
       <c r="B12" t="s">
@@ -731,21 +822,30 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>19.0</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -754,18 +854,27 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>20.0</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -774,86 +883,110 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>21.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>22.0</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>23.0</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>24.0</v>
       </c>
       <c r="B18" t="s">
@@ -863,13 +996,22 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/convert.excel/08.specification_item.xlsx
+++ b/convert.excel/08.specification_item.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Tech it_資料庫導入\convert.excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D592C8-67E3-4349-9511-67DBCC62C6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1515" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="specification_item" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -232,17 +241,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,46 +269,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -479,20 +503,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -550,7 +579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -579,7 +608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -608,7 +637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -637,9 +666,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -666,9 +695,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -695,9 +724,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
@@ -724,9 +753,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -753,9 +782,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -782,9 +811,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -811,9 +840,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -840,9 +869,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -869,9 +898,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -898,9 +927,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>61</v>
@@ -927,9 +956,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -956,9 +985,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -985,9 +1014,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1015,6 +1044,8 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>